--- a/biology/Microbiologie/Agar-agar/Agar-agar.xlsx
+++ b/biology/Microbiologie/Agar-agar/Agar-agar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'agar-agar (mot d'origine indonésienne-malaise, référencé E406 dans la liste des additifs alimentaires) est un produit gélifiant, dont la découverte faite au Japon en 1658 par Minoya Tarozaemon[4] est souvent attribuée à tort à Fanny et Walther Hesse, ces derniers ayant découvert en 1881 son utilité comme milieu de culture en microbiologie[5]. Il est appelé kanten au Japon où il est utilisé dans certaines pâtisseries traditionnelles comme les yōkan, ou sous forme de tokoroten.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'agar-agar (mot d'origine indonésienne-malaise, référencé E406 dans la liste des additifs alimentaires) est un produit gélifiant, dont la découverte faite au Japon en 1658 par Minoya Tarozaemon est souvent attribuée à tort à Fanny et Walther Hesse, ces derniers ayant découvert en 1881 son utilité comme milieu de culture en microbiologie. Il est appelé kanten au Japon où il est utilisé dans certaines pâtisseries traditionnelles comme les yōkan, ou sous forme de tokoroten.
 </t>
         </is>
       </c>
@@ -511,14 +523,86 @@
           <t>Description et préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'agar-agar est un polymère de galactose (galactane) contenu dans la paroi cellulaire de certaines espèces d'algues rouges appartenant aux familles des Gelidiacées (Gelidium et Pterocladia) et des Gracilariacées (Gracilaria)[6]. Le mucilage extrait à chaud de ces algues donne après purification, déshydratation et broyage la poudre d'agar-agar utilisée essentiellement pour gélifier un grand nombre de produits alimentaires mais aussi les milieux nécessaires à la culture in vitro des micro-organismes[7]. Il est alors commercialisé sous forme de longues barres transparentes ou en poudre. Cette substance s'utilise en très petites quantités. Elle n'a pratiquement ni goût ni couleur. C'est un liant et gélifiant végétal parfait pour remplacer la gélatine animale. Il existe une multitude de recettes dans lesquelles l'agar-agar peut être utilisé : confitures, gelées de fruits, flans… La gelée se forme à condition que l'agar-agar dilué dans l'eau soit chauffé à 90 °C puis refroidi à une température de 40 °C environ. L'agar-agar permet de servir des mousses chaudes. L'agar-agar entre aussi dans la composition d'un aérogel appelé SEAgel qui est semblable à de l'aérogel organique, avec un goût et une consistance rappelant les gâteaux de riz.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'agar-agar est un polymère de galactose (galactane) contenu dans la paroi cellulaire de certaines espèces d'algues rouges appartenant aux familles des Gelidiacées (Gelidium et Pterocladia) et des Gracilariacées (Gracilaria). Le mucilage extrait à chaud de ces algues donne après purification, déshydratation et broyage la poudre d'agar-agar utilisée essentiellement pour gélifier un grand nombre de produits alimentaires mais aussi les milieux nécessaires à la culture in vitro des micro-organismes. Il est alors commercialisé sous forme de longues barres transparentes ou en poudre. Cette substance s'utilise en très petites quantités. Elle n'a pratiquement ni goût ni couleur. C'est un liant et gélifiant végétal parfait pour remplacer la gélatine animale. Il existe une multitude de recettes dans lesquelles l'agar-agar peut être utilisé : confitures, gelées de fruits, flans… La gelée se forme à condition que l'agar-agar dilué dans l'eau soit chauffé à 90 °C puis refroidi à une température de 40 °C environ. L'agar-agar permet de servir des mousses chaudes. L'agar-agar entre aussi dans la composition d'un aérogel appelé SEAgel qui est semblable à de l'aérogel organique, avec un goût et une consistance rappelant les gâteaux de riz.
 L'agar-agar purifié, débarrassé de tous ses éléments minéraux s'appelle l'agarose, utilisable selon son niveau de pureté dans diverses applications de biologie moléculaire.
-Méthode d'extraction
-Les algues sont bouillies et filtrées. Le filtrat est refroidi pour lui permettre de gélifier, le gel est ensuite partiellement déshydraté par pressage ou congélation décongélation. Il est séché à l'air chaud ou au soleil avant d'être réduit en poudre.
-Espèces d'algues à agar-agar
-Gelidium
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agar-agar</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agar-agar</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description et préparation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Méthode d'extraction</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les algues sont bouillies et filtrées. Le filtrat est refroidi pour lui permettre de gélifier, le gel est ensuite partiellement déshydraté par pressage ou congélation décongélation. Il est séché à l'air chaud ou au soleil avant d'être réduit en poudre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agar-agar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agar-agar</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description et préparation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces d'algues à agar-agar</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gelidium
 Gracilaria
 Gracilariopsis
 Gelidiella
@@ -527,35 +611,37 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Agar-agar</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Agar-agar</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les utilisations de l'agar-agar découlent de ses propriétés de gélification des solutions aqueuses. C'est le gélifiant naturel le plus puissant, son action est perceptible à partir de 0,1 %.
 Gélifiant alimentaire, il possède l'avantage d'être acalorique. Il n'est pas digéré dans l'estomac et l'intestin et il est peu fermentescible.
-L'agar-agar constitue la principale alternative végétarienne et naturelle à la gélatine animale, avec un résultat différent, plus ferme[8].
+L'agar-agar constitue la principale alternative végétarienne et naturelle à la gélatine animale, avec un résultat différent, plus ferme.
 Ses propriétés laxatives sont utilisées lors de troubles intestinaux.
 À forte dose, il provoquerait des flatulences.
 L'agar-agar sert également à réaliser des prises d'empreintes dans différents domaines allant de l'archéologie à la dentisterie car c'est un matériau précis qui se liquéfie au-dessus de 80 °C et gélifie en refroidissant. Mais il est peu utilisé car il nécessite beaucoup de matériel (pour chauffer, maintenir à température et refroidir), et d'organisation.
@@ -565,31 +651,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Agar-agar</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Agar-agar</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Une boîte utilisée pour la culture de bactéries sur un gel d'agar-agar.
@@ -599,64 +687,68 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Agar-agar</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Agar-agar</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Substance analogue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carraghénane est un autre produit gélifiant dérivé d'algues rouges[9].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carraghénane est un autre produit gélifiant dérivé d'algues rouges.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Agar-agar</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Agar-agar</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Commerce</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La France, en 2014, est nette importatrice d'agar-agar. Ont été exportées mensuellement en moyenne 13 t et importées 34 t, avec un prix moyen à l'import de 20 000 €/t[10].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La France, en 2014, est nette importatrice d'agar-agar. Ont été exportées mensuellement en moyenne 13 t et importées 34 t, avec un prix moyen à l'import de 20 000 €/t.
 </t>
         </is>
       </c>
